--- a/temporary/test.xlsx
+++ b/temporary/test.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="196">
   <si>
     <t>Sample ID</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Note3</t>
-  </si>
-  <si>
-    <t>LC002-094</t>
   </si>
   <si>
     <t>DPM-LC002-094-BC1</t>
@@ -604,6 +601,22 @@
   </si>
   <si>
     <t>好看哈哈哈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC002-094shht22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC002-094sht111</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>log2(CPM+1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +727,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1109,834 +1122,834 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
       <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" t="s">
         <v>52</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
       </c>
       <c r="I3">
         <v>134123</v>
       </c>
       <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>63</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>64</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>65</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>66</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>67</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>69</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
         <v>70</v>
       </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" t="s">
-        <v>71</v>
-      </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC3" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>53</v>
-      </c>
       <c r="AD3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>79</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>80</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>81</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>82</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>83</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
         <v>84</v>
       </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>85</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" t="s">
         <v>86</v>
       </c>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" t="s">
-        <v>87</v>
-      </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X4">
         <v>12333</v>
       </c>
       <c r="Y4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="5"/>
+      <c r="AC4" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" t="s">
-        <v>53</v>
-      </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>91</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>92</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>93</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
         <v>94</v>
       </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>95</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>96</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>97</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>98</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>99</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
         <v>100</v>
       </c>
-      <c r="P5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>101</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" t="s">
         <v>102</v>
       </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" t="s">
-        <v>103</v>
-      </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" t="s">
-        <v>53</v>
-      </c>
       <c r="AD5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>107</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>108</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>110</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>111</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>112</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>113</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>115</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>116</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>117</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" t="s">
         <v>118</v>
       </c>
-      <c r="P10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" t="s">
-        <v>104</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" t="s">
         <v>119</v>
       </c>
-      <c r="T10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" t="s">
-        <v>120</v>
-      </c>
       <c r="V10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" t="s">
         <v>51</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" t="s">
         <v>52</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
         <v>121</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>122</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>123</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>124</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>125</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>126</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>127</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>130</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>131</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>132</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>133</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
         <v>134</v>
       </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>135</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" t="s">
         <v>136</v>
       </c>
-      <c r="T11" t="s">
-        <v>48</v>
-      </c>
-      <c r="U11" t="s">
-        <v>137</v>
-      </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" t="s">
         <v>51</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" t="s">
         <v>52</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
         <v>138</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>139</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>140</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>141</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>142</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>143</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>144</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>145</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>146</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>147</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>148</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>149</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>150</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
         <v>151</v>
       </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>152</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U12" t="s">
         <v>153</v>
       </c>
-      <c r="T12" t="s">
-        <v>48</v>
-      </c>
-      <c r="U12" t="s">
-        <v>154</v>
-      </c>
       <c r="V12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y12" t="s">
         <v>51</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" t="s">
         <v>52</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
         <v>155</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>156</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
         <v>157</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>158</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>159</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>160</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
         <v>161</v>
       </c>
-      <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>162</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>163</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>164</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>165</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>166</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" t="s">
         <v>167</v>
       </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>168</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" t="s">
         <v>169</v>
       </c>
-      <c r="T13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" t="s">
-        <v>170</v>
-      </c>
       <c r="V13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y13" t="s">
         <v>51</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" t="s">
         <v>52</v>
       </c>
-      <c r="Z13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>53</v>
-      </c>
       <c r="AC13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>172</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>173</v>
       </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>174</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>175</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>176</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" t="s">
         <v>177</v>
       </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>178</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>179</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>180</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>181</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>182</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" t="s">
         <v>183</v>
       </c>
-      <c r="P14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>184</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
         <v>185</v>
       </c>
-      <c r="T14" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" t="s">
-        <v>186</v>
-      </c>
       <c r="V14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y14" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB14" t="s">
         <v>52</v>
       </c>
-      <c r="Z14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>53</v>
-      </c>
       <c r="AC14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1953,15 +1966,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1971,734 +1987,614 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>134123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4">
+        <v>12333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
-        <v>51</v>
+      <c r="T5" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3">
-        <v>134123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4">
-        <v>12333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
-      </c>
-      <c r="V5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
       </c>
       <c r="O10" t="s">
         <v>118</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="S10" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="V10" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10" t="s">
-        <v>51</v>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>131</v>
-      </c>
-      <c r="M11" t="s">
-        <v>132</v>
-      </c>
-      <c r="N11" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S11" t="s">
-        <v>136</v>
-      </c>
-      <c r="T11" t="s">
-        <v>48</v>
-      </c>
-      <c r="U11" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>137</v>
       </c>
-      <c r="V11" t="s">
-        <v>48</v>
-      </c>
-      <c r="W11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X11" t="s">
-        <v>51</v>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>153</v>
+      </c>
+      <c r="R12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" t="s">
-        <v>147</v>
-      </c>
-      <c r="L12" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N12" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12" t="s">
-        <v>151</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" t="s">
-        <v>152</v>
-      </c>
-      <c r="S12" t="s">
-        <v>153</v>
-      </c>
-      <c r="T12" t="s">
-        <v>48</v>
-      </c>
-      <c r="U12" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>154</v>
       </c>
-      <c r="V12" t="s">
-        <v>48</v>
-      </c>
-      <c r="W12" t="s">
-        <v>50</v>
-      </c>
-      <c r="X12" t="s">
-        <v>51</v>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>169</v>
+      </c>
+      <c r="R13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" t="s">
-        <v>161</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" t="s">
-        <v>163</v>
-      </c>
-      <c r="L13" t="s">
-        <v>164</v>
-      </c>
-      <c r="M13" t="s">
-        <v>165</v>
-      </c>
-      <c r="N13" t="s">
-        <v>166</v>
-      </c>
-      <c r="O13" t="s">
-        <v>167</v>
-      </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" t="s">
-        <v>168</v>
-      </c>
-      <c r="S13" t="s">
-        <v>169</v>
-      </c>
-      <c r="T13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>170</v>
       </c>
-      <c r="V13" t="s">
-        <v>48</v>
-      </c>
-      <c r="W13" t="s">
-        <v>50</v>
-      </c>
-      <c r="X13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>172</v>
       </c>
-      <c r="C14" t="s">
-        <v>173</v>
-      </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="J14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L14" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q14" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="R14" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="S14" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" t="s">
-        <v>186</v>
-      </c>
-      <c r="V14" t="s">
-        <v>48</v>
-      </c>
-      <c r="W14" t="s">
-        <v>50</v>
-      </c>
-      <c r="X14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
